--- a/examples/wangetal2018/out/ResultFiles/PL_1.0_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_1.0_a.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="184">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -300,10 +306,19 @@
     <t>ROW ($)</t>
   </si>
   <si>
+    <t>X56</t>
+  </si>
+  <si>
+    <t>X52</t>
+  </si>
+  <si>
     <t>X42</t>
   </si>
   <si>
-    <t>S 40S</t>
+    <t>S 5S</t>
+  </si>
+  <si>
+    <t>S 10</t>
   </si>
   <si>
     <t>Breakdown of compressor by station</t>
@@ -432,7 +447,13 @@
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09</t>
+    <t>PI09_pre_loop_cxn</t>
+  </si>
+  <si>
+    <t>PS_3_loop</t>
+  </si>
+  <si>
+    <t>PI09_post_loop_cxn</t>
   </si>
   <si>
     <t>N01</t>
@@ -471,6 +492,9 @@
     <t>N09</t>
   </si>
   <si>
+    <t>loop_cxn_node_ps_3</t>
+  </si>
+  <si>
     <t>N03</t>
   </si>
   <si>
@@ -513,7 +537,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1152,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,10 +1198,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.7597658340155637</v>
+        <v>0.7347173315490355</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1185,10 +1209,10 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.1038883771555124</v>
+        <v>0.1744317047740421</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1196,10 +1220,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.006335744924229166</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1207,10 +1231,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03230227569550215</v>
+        <v>0.03175935585236317</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1221,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1229,10 +1253,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006675053417639744</v>
+        <v>0.006562862592800926</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1240,10 +1264,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.02532046456863806</v>
+        <v>0.03001308203189441</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1254,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1262,10 +1286,10 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.02751079443688865</v>
+        <v>0.03252023324089395</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1273,10 +1297,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.5002631122835653</v>
+        <v>0.3803681920594968</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1287,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1298,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1309,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1317,10 +1341,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.006578375504836326</v>
+        <v>0.00945163727332567</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1328,10 +1352,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.04727886535234006</v>
+        <v>0.06649443450558742</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1339,10 +1363,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.003612770676412075</v>
+        <v>0.003115829218631178</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1353,7 +1377,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1364,7 +1388,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1375,7 +1399,7 @@
         <v>32.79022202852632</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1386,7 +1410,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1397,7 +1421,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1405,10 +1429,10 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>246.6276997882389</v>
+        <v>364.372096392085</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1416,10 +1440,10 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>153.2473004451178</v>
+        <v>226.4102539072462</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1435,10 +1459,10 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>1123.245774351408</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1446,10 +1470,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>8049.576934189296</v>
+        <v>6120.385353469519</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1457,10 +1481,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>335.399038924554</v>
+        <v>255.0160563945633</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1471,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1479,10 +1503,10 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>163212506.1493395</v>
+        <v>278723335.5271993</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1490,10 +1514,10 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1504,7 +1528,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1515,7 +1539,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1523,208 +1547,297 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>39779392</v>
+        <v>47957717</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
+      <c r="G46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>750</v>
+      </c>
+      <c r="B47">
+        <v>67.89044945204486</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47">
+        <v>23268427.22073466</v>
+      </c>
+      <c r="F47">
+        <v>19226751.00321094</v>
+      </c>
+      <c r="G47">
+        <v>8331279.642146753</v>
+      </c>
+      <c r="H47">
+        <v>1351362.00670204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>850</v>
+      </c>
+      <c r="B48">
+        <v>127.2347372154131</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48">
+        <v>59502851.47078465</v>
+      </c>
+      <c r="F48">
+        <v>39763385.9091969</v>
+      </c>
+      <c r="G48">
+        <v>17238843.42916966</v>
+      </c>
+      <c r="H48">
+        <v>2783175.351343326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
         <v>650</v>
       </c>
-      <c r="B46">
-        <v>246.6276997882389</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46">
-        <v>82850101.28041106</v>
-      </c>
-      <c r="F46">
-        <v>52699110.20830882</v>
-      </c>
-      <c r="G46">
-        <v>23190938.31498183</v>
-      </c>
-      <c r="H46">
-        <v>4472356.34563782</v>
+      <c r="B49">
+        <v>97.31654618437069</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49">
+        <v>27267068.57314964</v>
+      </c>
+      <c r="F49">
+        <v>22487888.72429847</v>
+      </c>
+      <c r="G49">
+        <v>9822927.929053301</v>
+      </c>
+      <c r="H49">
+        <v>1752786.635563872</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A50">
+        <v>650</v>
+      </c>
+      <c r="B50">
+        <v>71.93036354025627</v>
+      </c>
+      <c r="C50" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="D50" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52">
-        <v>13.33760553485512</v>
-      </c>
-      <c r="C52">
-        <v>12.5</v>
-      </c>
-      <c r="D52">
-        <v>1123.245774351408</v>
-      </c>
-      <c r="E52">
-        <v>9953691.026075777</v>
-      </c>
-      <c r="F52">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G52">
-        <v>127.4779278300325</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53">
-        <v>10.90107571715246</v>
-      </c>
-      <c r="C53">
-        <v>12.5</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G53">
-        <v>104.1901066806424</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="E50">
+        <v>20154128.27565746</v>
+      </c>
+      <c r="F50">
+        <v>17050073.13068116</v>
+      </c>
+      <c r="G50">
+        <v>7429694.392043664</v>
+      </c>
+      <c r="H50">
+        <v>1292691.833462826</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B54">
-        <v>10.85304132375997</v>
-      </c>
-      <c r="C54">
+      <c r="G55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56">
+        <v>8.959101611155393</v>
+      </c>
+      <c r="C56">
         <v>12.5</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>16916025.69007904</v>
       </c>
-      <c r="G54">
-        <v>103.7310044138791</v>
-      </c>
-      <c r="H54">
+      <c r="G56">
+        <v>85.62914127458498</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57">
+        <v>7.039744450316797</v>
+      </c>
+      <c r="C57">
+        <v>12.5</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G57">
+        <v>67.2843437027848</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58">
+        <v>10.6826636174429</v>
+      </c>
+      <c r="C58">
+        <v>12.5</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G58">
+        <v>102.1025714171935</v>
+      </c>
+      <c r="H58">
         <v>0</v>
       </c>
     </row>
@@ -1735,7 +1848,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1743,58 +1856,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1802,34 +1915,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F2">
-        <v>23.06199332395586</v>
+        <v>18.37611325388763</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L2">
         <v>40</v>
@@ -1838,19 +1951,19 @@
         <v>24.85484</v>
       </c>
       <c r="N2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>5755826.518610233</v>
+        <v>4450639.90751528</v>
       </c>
       <c r="P2">
-        <v>15.026084487185</v>
+        <v>15.27873109138114</v>
       </c>
       <c r="Q2">
-        <v>0.01147672663302156</v>
+        <v>0.01175397686673199</v>
       </c>
       <c r="R2">
-        <v>55.96744211019624</v>
+        <v>63.22566969837849</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1858,55 +1971,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F3">
-        <v>23.06198487463441</v>
+        <v>18.37613200065267</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>13.08168365447168</v>
+        <v>27.89044945204486</v>
       </c>
       <c r="M3">
-        <v>8.128578854062722</v>
+        <v>17.33031646646657</v>
       </c>
       <c r="N3">
-        <v>5755826.518610233</v>
+        <v>4450639.90751528</v>
       </c>
       <c r="O3">
-        <v>5645194.893268042</v>
+        <v>4253391.152475267</v>
       </c>
       <c r="P3">
-        <v>15.30465895322355</v>
+        <v>15.95101683287311</v>
       </c>
       <c r="Q3">
-        <v>0.01169608837382398</v>
+        <v>0.01228619968068316</v>
       </c>
       <c r="R3">
-        <v>56.48390696222734</v>
+        <v>64.60162144482929</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1914,55 +2027,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F4">
-        <v>23.0619895191136</v>
+        <v>27.58080351974145</v>
       </c>
       <c r="G4">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I4">
-        <v>9.525</v>
+        <v>6.35</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4">
-        <v>6.12511734325328</v>
+        <v>4.757837256443139</v>
       </c>
       <c r="L4">
-        <v>53.08168365447168</v>
+        <v>67.89044945204486</v>
       </c>
       <c r="M4">
-        <v>32.98341885406273</v>
+        <v>42.18515646646657</v>
       </c>
       <c r="N4">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O4">
-        <v>5645194.893268042</v>
+        <v>4253391.152475267</v>
       </c>
       <c r="P4">
-        <v>15.30467670297223</v>
+        <v>17.53958262528652</v>
       </c>
       <c r="Q4">
-        <v>0.01169610193849274</v>
+        <v>0.01350978540791221</v>
       </c>
       <c r="R4">
-        <v>56.48390696222734</v>
+        <v>64.60162144482929</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1970,55 +2083,55 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F5">
-        <v>46.12441961032434</v>
+        <v>45.95694974907479</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>16.91831634552832</v>
+        <v>2.109550547955138</v>
       </c>
       <c r="M5">
-        <v>10.51255114593728</v>
+        <v>1.310813533533432</v>
       </c>
       <c r="N5">
-        <v>5645194.893268042</v>
+        <v>4253391.152475267</v>
       </c>
       <c r="O5">
-        <v>5065711.922492653</v>
+        <v>4163199.515701141</v>
       </c>
       <c r="P5">
-        <v>33.91909059387299</v>
+        <v>40.71274778005274</v>
       </c>
       <c r="Q5">
-        <v>0.02600142391413902</v>
+        <v>0.03137688420087466</v>
       </c>
       <c r="R5">
-        <v>59.45840040327314</v>
+        <v>65.26266750049102</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2026,34 +2139,34 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F6">
-        <v>25.77487800766191</v>
+        <v>18.71702745894161</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L6">
         <v>31.5</v>
@@ -2062,19 +2175,19 @@
         <v>19.5731865</v>
       </c>
       <c r="N6">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O6">
-        <v>5764162.515488699</v>
+        <v>4501425.743031803</v>
       </c>
       <c r="P6">
-        <v>16.77029219347022</v>
+        <v>15.39614121290583</v>
       </c>
       <c r="Q6">
-        <v>0.01280838917189053</v>
+        <v>0.01184065551712142</v>
       </c>
       <c r="R6">
-        <v>55.92912787174171</v>
+        <v>62.88594311886848</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2082,34 +2195,34 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F7">
-        <v>17.66221872714455</v>
+        <v>10.60437232790207</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L7">
         <v>48.5</v>
@@ -2118,19 +2231,19 @@
         <v>30.1364935</v>
       </c>
       <c r="N7">
-        <v>5764162.515488699</v>
+        <v>4501425.743031803</v>
       </c>
       <c r="O7">
-        <v>5515481.337063405</v>
+        <v>4383006.013061319</v>
       </c>
       <c r="P7">
-        <v>11.98181664180275</v>
+        <v>8.946565811531391</v>
       </c>
       <c r="Q7">
-        <v>0.009162848715547286</v>
+        <v>0.006885475150211207</v>
       </c>
       <c r="R7">
-        <v>57.10903951755582</v>
+        <v>63.68712213962312</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2138,55 +2251,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F8">
-        <v>17.66221902288507</v>
+        <v>10.604371425705</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L8">
-        <v>40.22673609820598</v>
+        <v>47.23473721541313</v>
       </c>
       <c r="M8">
-        <v>24.99572723607835</v>
+        <v>29.35029589827847</v>
       </c>
       <c r="N8">
-        <v>5515481.337063405</v>
+        <v>4383006.013061319</v>
       </c>
       <c r="O8">
-        <v>5300862.500663684</v>
+        <v>4264678.691755835</v>
       </c>
       <c r="P8">
-        <v>12.44098927732689</v>
+        <v>9.182194266062087</v>
       </c>
       <c r="Q8">
-        <v>0.009524757638747305</v>
+        <v>0.007072039651272251</v>
       </c>
       <c r="R8">
-        <v>58.19302932363535</v>
+        <v>64.52035041896771</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2194,55 +2307,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F9">
-        <v>20.08568474644187</v>
+        <v>27.06391886427272</v>
       </c>
       <c r="G9">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I9">
-        <v>9.525</v>
+        <v>7.925</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K9">
-        <v>6.12511734325328</v>
+        <v>4.832051316369016</v>
       </c>
       <c r="L9">
-        <v>120.226736098206</v>
+        <v>127.2347372154131</v>
       </c>
       <c r="M9">
-        <v>74.70540723607836</v>
+        <v>79.05997589827845</v>
       </c>
       <c r="N9">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>5300862.500663684</v>
+        <v>4264678.691755835</v>
       </c>
       <c r="P9">
-        <v>14.1480426806278</v>
+        <v>13.41240705207109</v>
       </c>
       <c r="Q9">
-        <v>0.01083166897677664</v>
+        <v>0.01033010974749605</v>
       </c>
       <c r="R9">
-        <v>58.19302932363535</v>
+        <v>64.52035041896771</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2250,55 +2363,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F10">
-        <v>37.74790500996696</v>
+        <v>37.66827189035973</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>9.773263901794024</v>
+        <v>2.765262784586866</v>
       </c>
       <c r="M10">
-        <v>6.072822763921655</v>
+        <v>1.718254101721526</v>
       </c>
       <c r="N10">
-        <v>5300862.500663684</v>
+        <v>4264678.691755835</v>
       </c>
       <c r="O10">
-        <v>5066918.798263816</v>
+        <v>4184624.542562771</v>
       </c>
       <c r="P10">
-        <v>27.75166869223581</v>
+        <v>33.20894362611735</v>
       </c>
       <c r="Q10">
-        <v>0.02127350969879608</v>
+        <v>0.0255902539823374</v>
       </c>
       <c r="R10">
-        <v>59.45168374915123</v>
+        <v>65.10372974182954</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2306,34 +2419,34 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F11">
-        <v>18.76630128710124</v>
+        <v>18.64267907904703</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -2342,19 +2455,19 @@
         <v>31.06855</v>
       </c>
       <c r="N11">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O11">
-        <v>5808451.50040659</v>
+        <v>4371087.162623841</v>
       </c>
       <c r="P11">
-        <v>12.12208617735722</v>
+        <v>15.76896050746692</v>
       </c>
       <c r="Q11">
-        <v>0.00925623046377826</v>
+        <v>0.01213703440425152</v>
       </c>
       <c r="R11">
-        <v>55.72694475531672</v>
+        <v>63.76953613275828</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2362,55 +2475,55 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F12">
-        <v>18.76630128927205</v>
+        <v>18.64267906608988</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>23.31928003556123</v>
+        <v>47.31654618437069</v>
       </c>
       <c r="M12">
-        <v>14.48992435497672</v>
+        <v>29.4011296191286</v>
       </c>
       <c r="N12">
-        <v>5808451.50040659</v>
+        <v>4371087.162623841</v>
       </c>
       <c r="O12">
-        <v>5676477.95402215</v>
+        <v>4014738.206005285</v>
       </c>
       <c r="P12">
-        <v>12.3886568012107</v>
+        <v>17.09579190023801</v>
       </c>
       <c r="Q12">
-        <v>0.009466113183175679</v>
+        <v>0.01318837274186208</v>
       </c>
       <c r="R12">
-        <v>56.33634412960992</v>
+        <v>66.39820462714314</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2418,55 +2531,55 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F13">
-        <v>18.76629987296917</v>
+        <v>18.88655704901602</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I13">
-        <v>9.525</v>
+        <v>7.925</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K13">
-        <v>6.12511734325328</v>
+        <v>5.096226240974513</v>
       </c>
       <c r="L13">
-        <v>73.31928003556123</v>
+        <v>97.31654618437069</v>
       </c>
       <c r="M13">
-        <v>45.55847435497672</v>
+        <v>60.46967961912861</v>
       </c>
       <c r="N13">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O13">
-        <v>5676477.95402215</v>
+        <v>4014738.206005285</v>
       </c>
       <c r="P13">
-        <v>12.38865585902462</v>
+        <v>17.14788912908443</v>
       </c>
       <c r="Q13">
-        <v>0.009466112463255814</v>
+        <v>0.01322856261296334</v>
       </c>
       <c r="R13">
-        <v>56.33634412960992</v>
+        <v>66.39820462714314</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2474,55 +2587,55 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F14">
-        <v>37.53260102905906</v>
+        <v>37.52923595665266</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L14">
-        <v>26.68071996443877</v>
+        <v>2.683453815629306</v>
       </c>
       <c r="M14">
-        <v>16.57862564502328</v>
+        <v>1.667420380871397</v>
       </c>
       <c r="N14">
-        <v>5676477.95402215</v>
+        <v>4014738.206005285</v>
       </c>
       <c r="O14">
-        <v>5065728.956085522</v>
+        <v>3932989.619854352</v>
       </c>
       <c r="P14">
-        <v>27.59954558668686</v>
+        <v>35.09454564212968</v>
       </c>
       <c r="Q14">
-        <v>0.02115703589636422</v>
+        <v>0.02708821978495439</v>
       </c>
       <c r="R14">
-        <v>59.45830558925363</v>
+        <v>67.05031801867433</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2530,34 +2643,34 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F15">
-        <v>37.31823697271101</v>
+        <v>18.53785995023582</v>
       </c>
       <c r="G15">
         <v>650</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>9.525</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L15">
         <v>50</v>
@@ -2566,19 +2679,19 @@
         <v>31.06855</v>
       </c>
       <c r="N15">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O15">
-        <v>4981465.910240876</v>
+        <v>4374963.639422653</v>
       </c>
       <c r="P15">
-        <v>27.88204242058993</v>
+        <v>15.66710166023309</v>
       </c>
       <c r="Q15">
-        <v>0.02138357842627748</v>
+        <v>0.01205834694289971</v>
       </c>
       <c r="R15">
-        <v>59.93322177627228</v>
+        <v>63.74269539498114</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2586,55 +2699,167 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F16">
-        <v>37.31823697337376</v>
+        <v>18.53785995007954</v>
       </c>
       <c r="G16">
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <v>9.525</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>21.93036354025627</v>
       </c>
       <c r="M16">
-        <v>31.06855</v>
+        <v>13.62689192337258</v>
       </c>
       <c r="N16">
-        <v>4981465.910240876</v>
+        <v>4374963.639422653</v>
       </c>
       <c r="O16">
-        <v>3576790.991447849</v>
+        <v>4215269.618969417</v>
       </c>
       <c r="P16">
-        <v>38.19117396568342</v>
+        <v>16.23039437270634</v>
       </c>
       <c r="Q16">
-        <v>0.02955314706254853</v>
+        <v>0.01250441703394667</v>
       </c>
       <c r="R16">
-        <v>70.14340378965359</v>
+        <v>64.87847447274517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17">
+        <v>18.7803770216035</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17">
+        <v>7.925</v>
+      </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L17">
+        <v>71.93036354025627</v>
+      </c>
+      <c r="M17">
+        <v>44.69544192337258</v>
+      </c>
+      <c r="N17">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O17">
+        <v>4215269.618969417</v>
+      </c>
+      <c r="P17">
+        <v>16.27986334616594</v>
+      </c>
+      <c r="Q17">
+        <v>0.01254252951970489</v>
+      </c>
+      <c r="R17">
+        <v>64.87847447274517</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18">
+        <v>37.31823697349051</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L18">
+        <v>28.06963645974373</v>
+      </c>
+      <c r="M18">
+        <v>17.44165807662742</v>
+      </c>
+      <c r="N18">
+        <v>4215269.618969417</v>
+      </c>
+      <c r="O18">
+        <v>3326109.762144403</v>
+      </c>
+      <c r="P18">
+        <v>40.91997643353311</v>
+      </c>
+      <c r="Q18">
+        <v>0.03172630434485686</v>
+      </c>
+      <c r="R18">
+        <v>72.60608503232396</v>
       </c>
     </row>
   </sheetData>
@@ -2652,72 +2877,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2726,22 +2951,22 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.200675994928005</v>
+        <v>1.133706961529023</v>
       </c>
       <c r="I2">
-        <v>127.4779278300325</v>
+        <v>85.62914127458498</v>
       </c>
       <c r="J2">
-        <v>13.33760553485512</v>
+        <v>8.959101611155393</v>
       </c>
       <c r="K2">
-        <v>17885.99577435141</v>
+        <v>12014.33444259161</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.33760553485512</v>
+        <v>12.5</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -2750,27 +2975,27 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>9953691.026075777</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>16916025.69007904</v>
       </c>
       <c r="R2">
-        <v>26869716.71615482</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2779,16 +3004,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.200390009139602</v>
+        <v>1.127902449832234</v>
       </c>
       <c r="I3">
-        <v>104.1901066806424</v>
+        <v>67.2843437027848</v>
       </c>
       <c r="J3">
-        <v>10.90107571715246</v>
+        <v>7.039744450316797</v>
       </c>
       <c r="K3">
-        <v>14618.56055821579</v>
+        <v>9440.43810276383</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2814,16 +3039,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -2832,16 +3057,16 @@
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.200671957636188</v>
+        <v>1.200066292918268</v>
       </c>
       <c r="I4">
-        <v>103.7310044138791</v>
+        <v>102.1025714171935</v>
       </c>
       <c r="J4">
-        <v>10.85304132375997</v>
+        <v>10.6826636174429</v>
       </c>
       <c r="K4">
-        <v>14554.1454759886</v>
+        <v>14325.66556426328</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2872,7 +3097,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2880,138 +3105,146 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B3">
-        <v>5755826.518610233</v>
+        <v>4450639.90751528</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B4">
-        <v>5645194.893268042</v>
+        <v>4253391.152475267</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B5">
-        <v>5065711.922492653</v>
+        <v>4163199.515701141</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B6">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B7">
-        <v>5764162.515488699</v>
+        <v>4501425.743031803</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B8">
-        <v>5515481.337063405</v>
+        <v>4383006.013061319</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B9">
-        <v>5300862.500663684</v>
+        <v>4264678.691755835</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B10">
-        <v>5066918.798263816</v>
+        <v>4184624.542562771</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B11">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B12">
-        <v>5808451.50040659</v>
+        <v>4371087.162623841</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B13">
-        <v>5676477.95402215</v>
+        <v>4014738.206005285</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B14">
-        <v>5065728.956085522</v>
+        <v>3932989.619854352</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B15">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B16">
-        <v>4981465.910240876</v>
+        <v>4374963.639422653</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B17">
-        <v>3576790.991447849</v>
+        <v>4215269.618969417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18">
+        <v>3326109.762144403</v>
       </c>
     </row>
   </sheetData>
@@ -3029,36 +3262,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112659280517367</v>
+        <v>8.112655131039535</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -3067,21 +3300,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520259276786</v>
+        <v>1150.519670806576</v>
       </c>
       <c r="G2">
-        <v>-1.22312663244875E-05</v>
+        <v>-6.337944327297924E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
       </c>
       <c r="C3">
-        <v>21.09291642753654</v>
+        <v>21.09291642760252</v>
       </c>
       <c r="D3">
         <v>141.8178946624533</v>
@@ -3090,21 +3323,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353000044307</v>
+        <v>2991.353000053665</v>
       </c>
       <c r="G3">
-        <v>1.481187497194441E-09</v>
+        <v>1.794015509309433E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>
       </c>
       <c r="C4">
-        <v>16.22532054583723</v>
+        <v>16.22532054588799</v>
       </c>
       <c r="D4">
         <v>141.8178946624533</v>
@@ -3113,10 +3346,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040800034083</v>
+        <v>2301.040800041281</v>
       </c>
       <c r="G4">
-        <v>1.481184108756216E-09</v>
+        <v>1.794013801004096E-09</v>
       </c>
     </row>
   </sheetData>

--- a/examples/wangetal2018/out/ResultFiles/PL_1.0_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_1.0_a.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="250">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -405,9 +405,18 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02_pre_loop_cxn</t>
   </si>
   <si>
@@ -417,12 +426,27 @@
     <t>PI02_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
     <t>PI04</t>
   </si>
   <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
     <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
@@ -432,9 +456,21 @@
     <t>PI05_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
     <t>PI06</t>
   </si>
   <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
     <t>PI07_pre_loop_cxn</t>
   </si>
   <si>
@@ -444,55 +480,217 @@
     <t>PI07_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09_pre_loop_cxn</t>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_3_loop</t>
   </si>
   <si>
-    <t>PI09_post_loop_cxn</t>
+    <t>PI09_1_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI09</t>
+  </si>
+  <si>
+    <t>PS_0_loop_0</t>
+  </si>
+  <si>
+    <t>PS_0_loop_1</t>
+  </si>
+  <si>
+    <t>PS_0_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_0</t>
+  </si>
+  <si>
+    <t>PS_1_loop_1</t>
+  </si>
+  <si>
+    <t>PS_1_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_3</t>
+  </si>
+  <si>
+    <t>PS_1_loop_4</t>
+  </si>
+  <si>
+    <t>PS_2_loop_0</t>
+  </si>
+  <si>
+    <t>PS_2_loop_1</t>
+  </si>
+  <si>
+    <t>PS_2_loop_2</t>
+  </si>
+  <si>
+    <t>PS_2_loop_3</t>
+  </si>
+  <si>
+    <t>PS_2_loop_4</t>
+  </si>
+  <si>
+    <t>PS_3_loop_0</t>
+  </si>
+  <si>
+    <t>PS_3_loop_1</t>
+  </si>
+  <si>
+    <t>PS_3_loop_2</t>
+  </si>
+  <si>
+    <t>PS_3_loop_3</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N01_2</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N03_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N06_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
   </si>
   <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N08_C_3</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_3</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
+    <t>N01_0_</t>
+  </si>
+  <si>
+    <t>N01_1_</t>
+  </si>
+  <si>
+    <t>N03_C_0_</t>
+  </si>
+  <si>
+    <t>N03_C_1</t>
+  </si>
+  <si>
+    <t>N03_C_2</t>
+  </si>
+  <si>
+    <t>N03_C_3</t>
+  </si>
+  <si>
+    <t>N06_C_0_</t>
+  </si>
+  <si>
+    <t>N06_C_1_</t>
+  </si>
+  <si>
+    <t>N06_C_2</t>
+  </si>
+  <si>
+    <t>N06_C_3</t>
+  </si>
+  <si>
+    <t>N08_C_0_</t>
+  </si>
+  <si>
+    <t>N08_C_1_</t>
+  </si>
+  <si>
+    <t>N08_C_2</t>
   </si>
   <si>
     <t>N03</t>
@@ -1198,7 +1396,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.7347173315490355</v>
+        <v>0.7463383509153364</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1209,7 +1407,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.1744317047740421</v>
+        <v>0.1759036808867162</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -1231,7 +1429,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03175935585236317</v>
+        <v>0.03178103003148192</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1253,7 +1451,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006562862592800926</v>
+        <v>0.006567341419765471</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1264,7 +1462,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.03001308203189441</v>
+        <v>0.03003356446607503</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1286,7 +1484,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.03252023324089395</v>
+        <v>0.03265806508315199</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1297,7 +1495,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.3803681920594968</v>
+        <v>0.3897381710892914</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1341,7 +1539,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.00945163727332567</v>
+        <v>0.009541921358074884</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1352,7 +1550,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.06649443450558742</v>
+        <v>0.06693765978142213</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1363,7 +1561,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.003115829218631178</v>
+        <v>0.00317691679935714</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1429,7 +1627,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>364.372096392085</v>
+        <v>367.6117660905137</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -1440,7 +1638,7 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>226.4102539072462</v>
+        <v>228.4232907074286</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -1470,7 +1668,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>6120.385353469519</v>
+        <v>6271.154749053736</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1481,7 +1679,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>255.0160563945633</v>
+        <v>261.2981145439057</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1503,7 +1701,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>278723335.5271993</v>
+        <v>280883707.8513413</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
@@ -1588,7 +1786,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1633,7 +1831,7 @@
         <v>750</v>
       </c>
       <c r="B47">
-        <v>67.89044945204486</v>
+        <v>68.27114740688788</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
@@ -1642,16 +1840,16 @@
         <v>96</v>
       </c>
       <c r="E47">
-        <v>23268427.22073466</v>
+        <v>23398905.7007984</v>
       </c>
       <c r="F47">
-        <v>19226751.00321094</v>
+        <v>19325465.47445029</v>
       </c>
       <c r="G47">
-        <v>8331279.642146753</v>
+        <v>8374427.993543528</v>
       </c>
       <c r="H47">
-        <v>1351362.00670204</v>
+        <v>1358995.364060226</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1659,7 +1857,7 @@
         <v>850</v>
       </c>
       <c r="B48">
-        <v>127.2347372154131</v>
+        <v>127.7212297131842</v>
       </c>
       <c r="C48" t="s">
         <v>94</v>
@@ -1668,16 +1866,16 @@
         <v>97</v>
       </c>
       <c r="E48">
-        <v>59502851.47078465</v>
+        <v>59730365.52449399</v>
       </c>
       <c r="F48">
-        <v>39763385.9091969</v>
+        <v>39902601.98224557</v>
       </c>
       <c r="G48">
-        <v>17238843.42916966</v>
+        <v>17299725.3910024</v>
       </c>
       <c r="H48">
-        <v>2783175.351343326</v>
+        <v>2793894.991989078</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1685,7 +1883,7 @@
         <v>650</v>
       </c>
       <c r="B49">
-        <v>97.31654618437069</v>
+        <v>98.17673024310137</v>
       </c>
       <c r="C49" t="s">
         <v>95</v>
@@ -1694,16 +1892,16 @@
         <v>97</v>
       </c>
       <c r="E49">
-        <v>27267068.57314964</v>
+        <v>27508083.06281827</v>
       </c>
       <c r="F49">
-        <v>22487888.72429847</v>
+        <v>22669857.82955856</v>
       </c>
       <c r="G49">
-        <v>9822927.929053301</v>
+        <v>9903109.226386989</v>
       </c>
       <c r="H49">
-        <v>1752786.635563872</v>
+        <v>1768393.328681951</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1711,7 +1909,7 @@
         <v>650</v>
       </c>
       <c r="B50">
-        <v>71.93036354025627</v>
+        <v>73.44265872734029</v>
       </c>
       <c r="C50" t="s">
         <v>95</v>
@@ -1720,16 +1918,16 @@
         <v>97</v>
       </c>
       <c r="E50">
-        <v>20154128.27565746</v>
+        <v>20577857.41716379</v>
       </c>
       <c r="F50">
-        <v>17050073.13068116</v>
+        <v>17378073.4772752</v>
       </c>
       <c r="G50">
-        <v>7429694.392043664</v>
+        <v>7573880.377882103</v>
       </c>
       <c r="H50">
-        <v>1292691.833462826</v>
+        <v>1320070.708990952</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1768,7 +1966,7 @@
         <v>107</v>
       </c>
       <c r="B56">
-        <v>8.959101611155393</v>
+        <v>9.156027417802681</v>
       </c>
       <c r="C56">
         <v>12.5</v>
@@ -1783,7 +1981,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>85.62914127458498</v>
+        <v>87.51131523017624</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1794,7 +1992,7 @@
         <v>108</v>
       </c>
       <c r="B57">
-        <v>7.039744450316797</v>
+        <v>7.189464809879866</v>
       </c>
       <c r="C57">
         <v>12.5</v>
@@ -1809,7 +2007,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>67.2843437027848</v>
+        <v>68.71533827982414</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1820,7 +2018,7 @@
         <v>109</v>
       </c>
       <c r="B58">
-        <v>10.6826636174429</v>
+        <v>10.99328898811119</v>
       </c>
       <c r="C58">
         <v>12.5</v>
@@ -1835,7 +2033,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G58">
-        <v>102.1025714171935</v>
+        <v>105.0714610339053</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1848,7 +2046,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1918,16 +2116,16 @@
         <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F2">
-        <v>18.37611325388763</v>
+        <v>18.38177272542843</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1945,25 +2143,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>4450639.90751528</v>
+        <v>4629841.401008163</v>
       </c>
       <c r="P2">
-        <v>15.27873109138114</v>
+        <v>14.79262944750581</v>
       </c>
       <c r="Q2">
-        <v>0.01175397686673199</v>
+        <v>0.01124889559252566</v>
       </c>
       <c r="R2">
-        <v>63.22566969837849</v>
+        <v>62.70764005453937</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1974,16 +2172,16 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F3">
-        <v>18.37613200065267</v>
+        <v>18.38177431431581</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -2001,25 +2199,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>27.89044945204486</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M3">
-        <v>17.33031646646657</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N3">
-        <v>4450639.90751528</v>
+        <v>4629841.401008163</v>
       </c>
       <c r="O3">
-        <v>4253391.152475267</v>
+        <v>4538105.725433338</v>
       </c>
       <c r="P3">
-        <v>15.95101683287311</v>
+        <v>14.83230461817516</v>
       </c>
       <c r="Q3">
-        <v>0.01228619968068316</v>
+        <v>0.01128273914470409</v>
       </c>
       <c r="R3">
-        <v>64.60162144482929</v>
+        <v>63.32019757528354</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2030,52 +2228,52 @@
         <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="F4">
-        <v>27.58080351974145</v>
+        <v>18.38177614281421</v>
       </c>
       <c r="G4">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I4">
-        <v>6.35</v>
+        <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>4.757837256443139</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L4">
-        <v>67.89044945204486</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M4">
-        <v>42.18515646646657</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N4">
-        <v>4719848.27318464</v>
+        <v>4538105.725433338</v>
       </c>
       <c r="O4">
-        <v>4253391.152475267</v>
+        <v>4444528.481792278</v>
       </c>
       <c r="P4">
-        <v>17.53958262528652</v>
+        <v>14.87230492093424</v>
       </c>
       <c r="Q4">
-        <v>0.01350978540791221</v>
+        <v>0.01131680739472558</v>
       </c>
       <c r="R4">
-        <v>64.60162144482929</v>
+        <v>63.96536665784551</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2086,16 +2284,16 @@
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F5">
-        <v>45.95694974907479</v>
+        <v>18.38177825083724</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2113,45 +2311,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>2.109550547955138</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>1.310813533533432</v>
+        <v>9.320565</v>
       </c>
       <c r="N5">
-        <v>4253391.152475267</v>
+        <v>4444528.481792278</v>
       </c>
       <c r="O5">
-        <v>4163199.515701141</v>
+        <v>4336908.449750478</v>
       </c>
       <c r="P5">
-        <v>40.71274778005274</v>
+        <v>14.91769869240347</v>
       </c>
       <c r="Q5">
-        <v>0.03137688420087466</v>
+        <v>0.01135572092950821</v>
       </c>
       <c r="R5">
-        <v>65.26266750049102</v>
+        <v>64.73230868224219</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F6">
-        <v>18.71702745894161</v>
+        <v>18.38178055581097</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2169,101 +2367,101 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L6">
-        <v>31.5</v>
+        <v>13.27114740688788</v>
       </c>
       <c r="M6">
-        <v>19.5731865</v>
+        <v>8.24630613536533</v>
       </c>
       <c r="N6">
-        <v>4719848.27318464</v>
+        <v>4336908.449750478</v>
       </c>
       <c r="O6">
-        <v>4501425.743031803</v>
+        <v>4239480.003745668</v>
       </c>
       <c r="P6">
-        <v>15.39614121290583</v>
+        <v>14.95821421404651</v>
       </c>
       <c r="Q6">
-        <v>0.01184065551712142</v>
+        <v>0.01139070143156608</v>
       </c>
       <c r="R6">
-        <v>62.88594311886848</v>
+        <v>65.4509511722554</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="F7">
-        <v>10.60437232790207</v>
+        <v>27.58925410367913</v>
       </c>
       <c r="G7">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I7">
-        <v>9.525</v>
+        <v>6.35</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>4.71984827318464</v>
+        <v>4.757837256443139</v>
       </c>
       <c r="L7">
-        <v>48.5</v>
+        <v>17.06778685172197</v>
       </c>
       <c r="M7">
-        <v>30.1364935</v>
+        <v>10.60542778384133</v>
       </c>
       <c r="N7">
-        <v>4501425.743031803</v>
+        <v>4364391.7905613</v>
       </c>
       <c r="O7">
-        <v>4383006.013061319</v>
+        <v>4239480.003745668</v>
       </c>
       <c r="P7">
-        <v>8.946565811531391</v>
+        <v>16.45967551739068</v>
       </c>
       <c r="Q7">
-        <v>0.006885475150211207</v>
+        <v>0.01252825981121024</v>
       </c>
       <c r="R7">
-        <v>63.68712213962312</v>
+        <v>65.4509511722554</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F8">
-        <v>10.604371425705</v>
+        <v>45.97056145436301</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2281,25 +2479,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L8">
-        <v>47.23473721541313</v>
+        <v>1.728852593112123</v>
       </c>
       <c r="M8">
-        <v>29.35029589827847</v>
+        <v>1.074258864634673</v>
       </c>
       <c r="N8">
-        <v>4383006.013061319</v>
+        <v>4239480.003745668</v>
       </c>
       <c r="O8">
-        <v>4264678.691755835</v>
+        <v>4163672.388510337</v>
       </c>
       <c r="P8">
-        <v>9.182194266062087</v>
+        <v>37.41367233274226</v>
       </c>
       <c r="Q8">
-        <v>0.007072039651272251</v>
+        <v>0.02849858288696066</v>
       </c>
       <c r="R8">
-        <v>64.52035041896771</v>
+        <v>66.02775622070283</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2310,52 +2508,52 @@
         <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="F9">
-        <v>27.06391886427272</v>
+        <v>18.72592201294257</v>
       </c>
       <c r="G9">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I9">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>4.832051316369016</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L9">
-        <v>127.2347372154131</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>79.05997589827845</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
         <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>4264678.691755835</v>
+        <v>4609459.04414115</v>
       </c>
       <c r="P9">
-        <v>13.41240705207109</v>
+        <v>15.08053450310207</v>
       </c>
       <c r="Q9">
-        <v>0.01033010974749605</v>
+        <v>0.0114687227404786</v>
       </c>
       <c r="R9">
-        <v>64.52035041896771</v>
+        <v>62.84179651094346</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2366,16 +2564,16 @@
         <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F10">
-        <v>37.66827189035973</v>
+        <v>18.72592199070249</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2393,45 +2591,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>2.765262784586866</v>
+        <v>15.75</v>
       </c>
       <c r="M10">
-        <v>1.718254101721526</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N10">
-        <v>4264678.691755835</v>
+        <v>4609459.04414115</v>
       </c>
       <c r="O10">
-        <v>4184624.542562771</v>
+        <v>4496442.552537158</v>
       </c>
       <c r="P10">
-        <v>33.20894362611735</v>
+        <v>15.12841129825129</v>
       </c>
       <c r="Q10">
-        <v>0.0255902539823374</v>
+        <v>0.01150961553447903</v>
       </c>
       <c r="R10">
-        <v>65.10372974182954</v>
+        <v>63.60502376043051</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F11">
-        <v>18.64267907904703</v>
+        <v>10.61326064784177</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2449,45 +2647,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M11">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N11">
-        <v>4719848.27318464</v>
+        <v>4496442.552537158</v>
       </c>
       <c r="O11">
-        <v>4371087.162623841</v>
+        <v>4456328.835412916</v>
       </c>
       <c r="P11">
-        <v>15.76896050746692</v>
+        <v>8.602435425167036</v>
       </c>
       <c r="Q11">
-        <v>0.01213703440425152</v>
+        <v>0.006545595452289535</v>
       </c>
       <c r="R11">
-        <v>63.76953613275828</v>
+        <v>63.88292104205534</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F12">
-        <v>18.64267906608988</v>
+        <v>10.6132606258062</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2505,101 +2703,101 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>47.31654618437069</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M12">
-        <v>29.4011296191286</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N12">
-        <v>4371087.162623841</v>
+        <v>4456328.835412916</v>
       </c>
       <c r="O12">
-        <v>4014738.206005285</v>
+        <v>4415860.71277449</v>
       </c>
       <c r="P12">
-        <v>17.09579190023801</v>
+        <v>8.630843347598999</v>
       </c>
       <c r="Q12">
-        <v>0.01318837274186208</v>
+        <v>0.006568144890049769</v>
       </c>
       <c r="R12">
-        <v>66.39820462714314</v>
+        <v>64.16699724702937</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="F13">
-        <v>18.88655704901602</v>
+        <v>10.61326060291526</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I13">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>5.096226240974513</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L13">
-        <v>97.31654618437069</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M13">
-        <v>60.46967961912861</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N13">
-        <v>4719848.27318464</v>
+        <v>4415860.71277449</v>
       </c>
       <c r="O13">
-        <v>4014738.206005285</v>
+        <v>4375028.621723402</v>
       </c>
       <c r="P13">
-        <v>17.14788912908443</v>
+        <v>8.659537628299235</v>
       </c>
       <c r="Q13">
-        <v>0.01322856261296334</v>
+        <v>0.006590942430738003</v>
       </c>
       <c r="R13">
-        <v>66.39820462714314</v>
+        <v>64.457504153108</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F14">
-        <v>37.52923595665266</v>
+        <v>10.61326057873383</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -2617,45 +2815,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L14">
-        <v>2.683453815629306</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M14">
-        <v>1.667420380871397</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N14">
-        <v>4014738.206005285</v>
+        <v>4375028.621723402</v>
       </c>
       <c r="O14">
-        <v>3932989.619854352</v>
+        <v>4332542.073483923</v>
       </c>
       <c r="P14">
-        <v>35.09454564212968</v>
+        <v>8.689424287575635</v>
       </c>
       <c r="Q14">
-        <v>0.02708821978495439</v>
+        <v>0.006614710217625447</v>
       </c>
       <c r="R14">
-        <v>67.05031801867433</v>
+        <v>64.76401030795613</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F15">
-        <v>18.53785995023582</v>
+        <v>10.61326055316057</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -2673,45 +2871,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M15">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N15">
-        <v>4719848.27318464</v>
+        <v>4332542.073483923</v>
       </c>
       <c r="O15">
-        <v>4374963.639422653</v>
+        <v>4289646.586149371</v>
       </c>
       <c r="P15">
-        <v>15.66710166023309</v>
+        <v>8.719625921662487</v>
       </c>
       <c r="Q15">
-        <v>0.01205834694289971</v>
+        <v>0.00663875298599673</v>
       </c>
       <c r="R15">
-        <v>63.74269539498114</v>
+        <v>65.07794537597859</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F16">
-        <v>18.53785995007954</v>
+        <v>10.61326052835602</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -2729,48 +2927,48 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L16">
-        <v>21.93036354025627</v>
+        <v>14.38789637985082</v>
       </c>
       <c r="M16">
-        <v>13.62689192337258</v>
+        <v>8.940221561444284</v>
       </c>
       <c r="N16">
-        <v>4374963.639422653</v>
+        <v>4289646.586149371</v>
       </c>
       <c r="O16">
-        <v>4215269.618969417</v>
+        <v>4252277.917646678</v>
       </c>
       <c r="P16">
-        <v>16.23039437270634</v>
+        <v>8.745955809946739</v>
       </c>
       <c r="Q16">
-        <v>0.01250441703394667</v>
+        <v>0.00665973427191302</v>
       </c>
       <c r="R16">
-        <v>64.87847447274517</v>
+        <v>65.35518519812346</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="F17">
-        <v>18.7803770216035</v>
+        <v>27.06411895932528</v>
       </c>
       <c r="G17">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="H17" t="s">
         <v>97</v>
@@ -2779,51 +2977,51 @@
         <v>7.925</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K17">
-        <v>5.096226240974513</v>
+        <v>4.832051316369016</v>
       </c>
       <c r="L17">
-        <v>71.93036354025627</v>
+        <v>21.28687161886403</v>
       </c>
       <c r="M17">
-        <v>44.69544192337258</v>
+        <v>13.22704470468516</v>
       </c>
       <c r="N17">
-        <v>4719848.27318464</v>
+        <v>4333611.711300379</v>
       </c>
       <c r="O17">
-        <v>4215269.618969417</v>
+        <v>4252277.917646678</v>
       </c>
       <c r="P17">
-        <v>16.27986334616594</v>
+        <v>12.77088495796167</v>
       </c>
       <c r="Q17">
-        <v>0.01254252951970489</v>
+        <v>0.009721630517153294</v>
       </c>
       <c r="R17">
-        <v>64.87847447274517</v>
+        <v>65.35518519812346</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F18">
-        <v>37.31823697349051</v>
+        <v>37.67737720824872</v>
       </c>
       <c r="G18">
         <v>650</v>
@@ -2841,25 +3039,1873 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L18">
-        <v>28.06963645974373</v>
+        <v>2.278770286815853</v>
       </c>
       <c r="M18">
-        <v>17.44165807662742</v>
+        <v>1.415961771889053</v>
       </c>
       <c r="N18">
-        <v>4215269.618969417</v>
+        <v>4252277.917646678</v>
       </c>
       <c r="O18">
-        <v>3326109.762144403</v>
+        <v>4184639.102278052</v>
       </c>
       <c r="P18">
-        <v>40.91997643353311</v>
+        <v>31.05498059876901</v>
       </c>
       <c r="Q18">
-        <v>0.03172630434485686</v>
+        <v>0.02365340577558567</v>
       </c>
       <c r="R18">
-        <v>72.60608503232396</v>
+        <v>65.86614208809982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19">
+        <v>18.64572115561997</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O19">
+        <v>4603921.620421041</v>
+      </c>
+      <c r="P19">
+        <v>15.01870189661899</v>
+      </c>
+      <c r="Q19">
+        <v>0.01142194193298958</v>
+      </c>
+      <c r="R19">
+        <v>62.87839276437242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20">
+        <v>18.64572115487477</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>4603921.620421041</v>
+      </c>
+      <c r="O20">
+        <v>4485089.619023613</v>
+      </c>
+      <c r="P20">
+        <v>15.06919055200476</v>
+      </c>
+      <c r="Q20">
+        <v>0.01146500828255257</v>
+      </c>
+      <c r="R20">
+        <v>63.68330571929729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21">
+        <v>18.64572115401484</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>4485089.619023613</v>
+      </c>
+      <c r="O21">
+        <v>4363111.882407848</v>
+      </c>
+      <c r="P21">
+        <v>15.12019732918117</v>
+      </c>
+      <c r="Q21">
+        <v>0.01150877106999977</v>
+      </c>
+      <c r="R21">
+        <v>64.54303441178051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22">
+        <v>18.64572115306317</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>4363111.882407848</v>
+      </c>
+      <c r="O22">
+        <v>4237724.51792611</v>
+      </c>
+      <c r="P22">
+        <v>15.17173118960541</v>
+      </c>
+      <c r="Q22">
+        <v>0.01155337213402479</v>
+      </c>
+      <c r="R22">
+        <v>65.46412022131405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23">
+        <v>18.64572115233398</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>4237724.51792611</v>
+      </c>
+      <c r="O23">
+        <v>4108623.022283109</v>
+      </c>
+      <c r="P23">
+        <v>15.2238013153073</v>
+      </c>
+      <c r="Q23">
+        <v>0.01159835071179731</v>
+      </c>
+      <c r="R23">
+        <v>66.4579937686336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24">
+        <v>18.64572115129662</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L24">
+        <v>14.84339690976803</v>
+      </c>
+      <c r="M24">
+        <v>9.223256381219471</v>
+      </c>
+      <c r="N24">
+        <v>4108623.022283109</v>
+      </c>
+      <c r="O24">
+        <v>3990217.090911283</v>
+      </c>
+      <c r="P24">
+        <v>15.27063426652444</v>
+      </c>
+      <c r="Q24">
+        <v>0.01163882793112217</v>
+      </c>
+      <c r="R24">
+        <v>67.41264095086734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25">
+        <v>18.88965004907736</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25">
+        <v>7.925</v>
+      </c>
+      <c r="J25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L25">
+        <v>16.36278837385023</v>
+      </c>
+      <c r="M25">
+        <v>10.16736217464769</v>
+      </c>
+      <c r="N25">
+        <v>4120555.984344149</v>
+      </c>
+      <c r="O25">
+        <v>3990217.090911283</v>
+      </c>
+      <c r="P25">
+        <v>15.33978339717824</v>
+      </c>
+      <c r="Q25">
+        <v>0.01168624030890413</v>
+      </c>
+      <c r="R25">
+        <v>67.41264095086734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26">
+        <v>37.53537123871433</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L26">
+        <v>1.823269756898636</v>
+      </c>
+      <c r="M26">
+        <v>1.132926952113862</v>
+      </c>
+      <c r="N26">
+        <v>3990217.090911283</v>
+      </c>
+      <c r="O26">
+        <v>3933100.380060672</v>
+      </c>
+      <c r="P26">
+        <v>30.74621584559706</v>
+      </c>
+      <c r="Q26">
+        <v>0.0234387032449572</v>
+      </c>
+      <c r="R26">
+        <v>67.88809724703847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27">
+        <v>18.53785570620423</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O27">
+        <v>4605214.898292832</v>
+      </c>
+      <c r="P27">
+        <v>14.93181874874943</v>
+      </c>
+      <c r="Q27">
+        <v>0.01135580960803599</v>
+      </c>
+      <c r="R27">
+        <v>62.86983990409282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28">
+        <v>18.5378557062058</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>4605214.898292832</v>
+      </c>
+      <c r="O28">
+        <v>4487742.436611561</v>
+      </c>
+      <c r="P28">
+        <v>14.98201533048054</v>
+      </c>
+      <c r="Q28">
+        <v>0.01139857908604908</v>
+      </c>
+      <c r="R28">
+        <v>63.66498785160002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29">
+        <v>18.53785570620834</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>4487742.436611561</v>
+      </c>
+      <c r="O29">
+        <v>4367198.578605633</v>
+      </c>
+      <c r="P29">
+        <v>15.03272703724685</v>
+      </c>
+      <c r="Q29">
+        <v>0.01144202384475561</v>
+      </c>
+      <c r="R29">
+        <v>64.51366453503923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30">
+        <v>18.53785570621152</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L30">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M30">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N30">
+        <v>4367198.578605633</v>
+      </c>
+      <c r="O30">
+        <v>4243329.023133839</v>
+      </c>
+      <c r="P30">
+        <v>15.08396277856458</v>
+      </c>
+      <c r="Q30">
+        <v>0.01148629100750428</v>
+      </c>
+      <c r="R30">
+        <v>65.4221049499083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31">
+        <v>18.5378557062144</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31">
+        <v>9.525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L31">
+        <v>6.775992060673616</v>
+      </c>
+      <c r="M31">
+        <v>4.210404962732825</v>
+      </c>
+      <c r="N31">
+        <v>4243329.023133839</v>
+      </c>
+      <c r="O31">
+        <v>4191952.379590714</v>
+      </c>
+      <c r="P31">
+        <v>15.10494507768475</v>
+      </c>
+      <c r="Q31">
+        <v>0.01150453895718217</v>
+      </c>
+      <c r="R31">
+        <v>65.8103176361487</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32">
+        <v>18.78038126655641</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32">
+        <v>7.925</v>
+      </c>
+      <c r="J32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L32">
+        <v>14.68853174546806</v>
+      </c>
+      <c r="M32">
+        <v>9.127027659213233</v>
+      </c>
+      <c r="N32">
+        <v>4302568.644392983</v>
+      </c>
+      <c r="O32">
+        <v>4191952.379590714</v>
+      </c>
+      <c r="P32">
+        <v>15.17085015027856</v>
+      </c>
+      <c r="Q32">
+        <v>0.01154988634002185</v>
+      </c>
+      <c r="R32">
+        <v>65.8103176361487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33">
+        <v>37.31823697276008</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>9.525</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L33">
+        <v>9.890674605993052</v>
+      </c>
+      <c r="M33">
+        <v>6.145778370600508</v>
+      </c>
+      <c r="N33">
+        <v>4191952.379590714</v>
+      </c>
+      <c r="O33">
+        <v>3891495.947350198</v>
+      </c>
+      <c r="P33">
+        <v>30.43500156278373</v>
+      </c>
+      <c r="Q33">
+        <v>0.02320502594548853</v>
+      </c>
+      <c r="R33">
+        <v>68.24082745579349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34">
+        <v>37.31823697298299</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L34">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M34">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N34">
+        <v>3891495.947350198</v>
+      </c>
+      <c r="O34">
+        <v>3325995.032960987</v>
+      </c>
+      <c r="P34">
+        <v>30.53994660282437</v>
+      </c>
+      <c r="Q34">
+        <v>0.02333287847313218</v>
+      </c>
+      <c r="R34">
+        <v>73.68254181112006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35">
+        <v>27.58924288864747</v>
+      </c>
+      <c r="G35">
+        <v>750</v>
+      </c>
+      <c r="H35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35">
+        <v>6.35</v>
+      </c>
+      <c r="J35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K35">
+        <v>4.757837256443139</v>
+      </c>
+      <c r="L35">
+        <v>17.06778685172197</v>
+      </c>
+      <c r="M35">
+        <v>10.60542778384133</v>
+      </c>
+      <c r="N35">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O35">
+        <v>4604326.575627618</v>
+      </c>
+      <c r="P35">
+        <v>16.51287221377283</v>
+      </c>
+      <c r="Q35">
+        <v>0.01255826071937061</v>
+      </c>
+      <c r="R35">
+        <v>62.8757142906824</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36">
+        <v>27.58924606429603</v>
+      </c>
+      <c r="G36">
+        <v>750</v>
+      </c>
+      <c r="H36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36">
+        <v>6.35</v>
+      </c>
+      <c r="J36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36">
+        <v>4.757837256443139</v>
+      </c>
+      <c r="L36">
+        <v>17.06778685172197</v>
+      </c>
+      <c r="M36">
+        <v>10.60542778384133</v>
+      </c>
+      <c r="N36">
+        <v>4604326.575627618</v>
+      </c>
+      <c r="O36">
+        <v>4485920.360442947</v>
+      </c>
+      <c r="P36">
+        <v>16.51288011107633</v>
+      </c>
+      <c r="Q36">
+        <v>0.01255826672537581</v>
+      </c>
+      <c r="R36">
+        <v>63.67756769865178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37">
+        <v>27.58924988377325</v>
+      </c>
+      <c r="G37">
+        <v>750</v>
+      </c>
+      <c r="H37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37">
+        <v>6.35</v>
+      </c>
+      <c r="J37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37">
+        <v>4.757837256443139</v>
+      </c>
+      <c r="L37">
+        <v>17.06778685172197</v>
+      </c>
+      <c r="M37">
+        <v>10.60542778384133</v>
+      </c>
+      <c r="N37">
+        <v>4485920.360442947</v>
+      </c>
+      <c r="O37">
+        <v>4364391.7905613</v>
+      </c>
+      <c r="P37">
+        <v>16.4862122077058</v>
+      </c>
+      <c r="Q37">
+        <v>0.01254307706785102</v>
+      </c>
+      <c r="R37">
+        <v>64.53383177677195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38">
+        <v>27.06411927361884</v>
+      </c>
+      <c r="G38">
+        <v>850</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38">
+        <v>7.925</v>
+      </c>
+      <c r="J38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38">
+        <v>4.832051316369016</v>
+      </c>
+      <c r="L38">
+        <v>21.28687161886403</v>
+      </c>
+      <c r="M38">
+        <v>13.22704470468516</v>
+      </c>
+      <c r="N38">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O38">
+        <v>4645098.174577626</v>
+      </c>
+      <c r="P38">
+        <v>12.82826170618092</v>
+      </c>
+      <c r="Q38">
+        <v>0.009754548720475051</v>
+      </c>
+      <c r="R38">
+        <v>62.60778051437195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39">
+        <v>27.06411920401428</v>
+      </c>
+      <c r="G39">
+        <v>850</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39">
+        <v>7.925</v>
+      </c>
+      <c r="J39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39">
+        <v>4.832051316369016</v>
+      </c>
+      <c r="L39">
+        <v>21.28687161886403</v>
+      </c>
+      <c r="M39">
+        <v>13.22704470468516</v>
+      </c>
+      <c r="N39">
+        <v>4645098.174577626</v>
+      </c>
+      <c r="O39">
+        <v>4569163.961212213</v>
+      </c>
+      <c r="P39">
+        <v>12.8282616098375</v>
+      </c>
+      <c r="Q39">
+        <v>0.009754548647215968</v>
+      </c>
+      <c r="R39">
+        <v>63.1103429568154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40">
+        <v>27.06411915772785</v>
+      </c>
+      <c r="G40">
+        <v>850</v>
+      </c>
+      <c r="H40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40">
+        <v>7.925</v>
+      </c>
+      <c r="J40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40">
+        <v>4.832051316369016</v>
+      </c>
+      <c r="L40">
+        <v>21.28687161886403</v>
+      </c>
+      <c r="M40">
+        <v>13.22704470468516</v>
+      </c>
+      <c r="N40">
+        <v>4569163.961212213</v>
+      </c>
+      <c r="O40">
+        <v>4491982.233958257</v>
+      </c>
+      <c r="P40">
+        <v>12.81384160352446</v>
+      </c>
+      <c r="Q40">
+        <v>0.009746304957352302</v>
+      </c>
+      <c r="R40">
+        <v>63.63574458267772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41">
+        <v>27.06411909768421</v>
+      </c>
+      <c r="G41">
+        <v>850</v>
+      </c>
+      <c r="H41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41">
+        <v>7.925</v>
+      </c>
+      <c r="J41" t="s">
+        <v>94</v>
+      </c>
+      <c r="K41">
+        <v>4.832051316369016</v>
+      </c>
+      <c r="L41">
+        <v>21.28687161886403</v>
+      </c>
+      <c r="M41">
+        <v>13.22704470468516</v>
+      </c>
+      <c r="N41">
+        <v>4491982.233958257</v>
+      </c>
+      <c r="O41">
+        <v>4413487.929014986</v>
+      </c>
+      <c r="P41">
+        <v>12.799470538975</v>
+      </c>
+      <c r="Q41">
+        <v>0.00973791884238167</v>
+      </c>
+      <c r="R41">
+        <v>64.18377144353144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42">
+        <v>27.06411903262203</v>
+      </c>
+      <c r="G42">
+        <v>850</v>
+      </c>
+      <c r="H42" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42">
+        <v>7.925</v>
+      </c>
+      <c r="J42" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42">
+        <v>4.832051316369016</v>
+      </c>
+      <c r="L42">
+        <v>21.28687161886403</v>
+      </c>
+      <c r="M42">
+        <v>13.22704470468516</v>
+      </c>
+      <c r="N42">
+        <v>4413487.929014986</v>
+      </c>
+      <c r="O42">
+        <v>4333611.711300379</v>
+      </c>
+      <c r="P42">
+        <v>12.78514814857855</v>
+      </c>
+      <c r="Q42">
+        <v>0.0097296878378025</v>
+      </c>
+      <c r="R42">
+        <v>64.75624000541191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43">
+        <v>18.88965005579279</v>
+      </c>
+      <c r="G43">
+        <v>650</v>
+      </c>
+      <c r="H43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43">
+        <v>7.925</v>
+      </c>
+      <c r="J43" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L43">
+        <v>16.36278837385023</v>
+      </c>
+      <c r="M43">
+        <v>10.16736217464769</v>
+      </c>
+      <c r="N43">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O43">
+        <v>4606060.490981052</v>
+      </c>
+      <c r="P43">
+        <v>15.54855193622224</v>
+      </c>
+      <c r="Q43">
+        <v>0.01182480346615248</v>
+      </c>
+      <c r="R43">
+        <v>62.86424961579112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44">
+        <v>18.88965005340972</v>
+      </c>
+      <c r="G44">
+        <v>650</v>
+      </c>
+      <c r="H44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44">
+        <v>7.925</v>
+      </c>
+      <c r="J44" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L44">
+        <v>16.36278837385023</v>
+      </c>
+      <c r="M44">
+        <v>10.16736217464769</v>
+      </c>
+      <c r="N44">
+        <v>4606060.490981052</v>
+      </c>
+      <c r="O44">
+        <v>4489476.512720108</v>
+      </c>
+      <c r="P44">
+        <v>15.54855192514972</v>
+      </c>
+      <c r="Q44">
+        <v>0.01182480345773173</v>
+      </c>
+      <c r="R44">
+        <v>63.65302248982194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45">
+        <v>18.88965005252322</v>
+      </c>
+      <c r="G45">
+        <v>650</v>
+      </c>
+      <c r="H45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45">
+        <v>7.925</v>
+      </c>
+      <c r="J45" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L45">
+        <v>16.36278837385023</v>
+      </c>
+      <c r="M45">
+        <v>10.16736217464769</v>
+      </c>
+      <c r="N45">
+        <v>4489476.512720108</v>
+      </c>
+      <c r="O45">
+        <v>4369869.203386199</v>
+      </c>
+      <c r="P45">
+        <v>15.49544355305514</v>
+      </c>
+      <c r="Q45">
+        <v>0.01178913389240677</v>
+      </c>
+      <c r="R45">
+        <v>64.49449319220757</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46">
+        <v>18.8896500515427</v>
+      </c>
+      <c r="G46">
+        <v>650</v>
+      </c>
+      <c r="H46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46">
+        <v>7.925</v>
+      </c>
+      <c r="J46" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L46">
+        <v>16.36278837385023</v>
+      </c>
+      <c r="M46">
+        <v>10.16736217464769</v>
+      </c>
+      <c r="N46">
+        <v>4369869.203386199</v>
+      </c>
+      <c r="O46">
+        <v>4246990.394191001</v>
+      </c>
+      <c r="P46">
+        <v>15.44288053789654</v>
+      </c>
+      <c r="Q46">
+        <v>0.01175409514941125</v>
+      </c>
+      <c r="R46">
+        <v>65.39470041212753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47">
+        <v>18.88965005045224</v>
+      </c>
+      <c r="G47">
+        <v>650</v>
+      </c>
+      <c r="H47" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47">
+        <v>7.925</v>
+      </c>
+      <c r="J47" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L47">
+        <v>16.36278837385023</v>
+      </c>
+      <c r="M47">
+        <v>10.16736217464769</v>
+      </c>
+      <c r="N47">
+        <v>4246990.394191001</v>
+      </c>
+      <c r="O47">
+        <v>4120555.984344149</v>
+      </c>
+      <c r="P47">
+        <v>15.39101637661349</v>
+      </c>
+      <c r="Q47">
+        <v>0.01171994640105741</v>
+      </c>
+      <c r="R47">
+        <v>66.36401805595835</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48">
+        <v>18.78038126657759</v>
+      </c>
+      <c r="G48">
+        <v>650</v>
+      </c>
+      <c r="H48" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48">
+        <v>7.925</v>
+      </c>
+      <c r="J48" t="s">
+        <v>95</v>
+      </c>
+      <c r="K48">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L48">
+        <v>14.68853174546806</v>
+      </c>
+      <c r="M48">
+        <v>9.127027659213233</v>
+      </c>
+      <c r="N48">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O48">
+        <v>4618964.602465562</v>
+      </c>
+      <c r="P48">
+        <v>15.30699854655803</v>
+      </c>
+      <c r="Q48">
+        <v>0.01164052475123659</v>
+      </c>
+      <c r="R48">
+        <v>62.77912398573429</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49">
+        <v>18.78038126660792</v>
+      </c>
+      <c r="G49">
+        <v>650</v>
+      </c>
+      <c r="H49" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49">
+        <v>7.925</v>
+      </c>
+      <c r="J49" t="s">
+        <v>95</v>
+      </c>
+      <c r="K49">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L49">
+        <v>14.68853174546806</v>
+      </c>
+      <c r="M49">
+        <v>9.127027659213233</v>
+      </c>
+      <c r="N49">
+        <v>4618964.602465562</v>
+      </c>
+      <c r="O49">
+        <v>4515897.002516481</v>
+      </c>
+      <c r="P49">
+        <v>15.30699854643723</v>
+      </c>
+      <c r="Q49">
+        <v>0.01164052475114473</v>
+      </c>
+      <c r="R49">
+        <v>63.47154793173397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50">
+        <v>18.78038126660656</v>
+      </c>
+      <c r="G50">
+        <v>650</v>
+      </c>
+      <c r="H50" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50">
+        <v>7.925</v>
+      </c>
+      <c r="J50" t="s">
+        <v>95</v>
+      </c>
+      <c r="K50">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L50">
+        <v>14.68853174546806</v>
+      </c>
+      <c r="M50">
+        <v>9.127027659213233</v>
+      </c>
+      <c r="N50">
+        <v>4515897.002516481</v>
+      </c>
+      <c r="O50">
+        <v>4410487.447646458</v>
+      </c>
+      <c r="P50">
+        <v>15.26120489703891</v>
+      </c>
+      <c r="Q50">
+        <v>0.01160987214817146</v>
+      </c>
+      <c r="R50">
+        <v>64.20500194329725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51">
+        <v>18.78038126660543</v>
+      </c>
+      <c r="G51">
+        <v>650</v>
+      </c>
+      <c r="H51" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51">
+        <v>7.925</v>
+      </c>
+      <c r="J51" t="s">
+        <v>95</v>
+      </c>
+      <c r="K51">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L51">
+        <v>14.68853174546806</v>
+      </c>
+      <c r="M51">
+        <v>9.127027659213233</v>
+      </c>
+      <c r="N51">
+        <v>4410487.447646458</v>
+      </c>
+      <c r="O51">
+        <v>4302568.644392983</v>
+      </c>
+      <c r="P51">
+        <v>15.21582416327552</v>
+      </c>
+      <c r="Q51">
+        <v>0.01157959167522163</v>
+      </c>
+      <c r="R51">
+        <v>64.98289386076668</v>
       </c>
     </row>
   </sheetData>
@@ -2877,7 +4923,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2892,43 +4938,43 @@
         <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2936,13 +4982,13 @@
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2951,16 +4997,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.133706961529023</v>
+        <v>1.133578205194307</v>
       </c>
       <c r="I2">
-        <v>85.62914127458498</v>
+        <v>87.51131523017624</v>
       </c>
       <c r="J2">
-        <v>8.959101611155393</v>
+        <v>9.156027417802681</v>
       </c>
       <c r="K2">
-        <v>12014.33444259161</v>
+        <v>12278.41588782175</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2989,13 +5035,13 @@
         <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -3004,16 +5050,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.127902449832234</v>
+        <v>1.127898525494165</v>
       </c>
       <c r="I3">
-        <v>67.2843437027848</v>
+        <v>68.71533827982414</v>
       </c>
       <c r="J3">
-        <v>7.039744450316797</v>
+        <v>7.189464809879866</v>
       </c>
       <c r="K3">
-        <v>9440.43810276383</v>
+        <v>9641.216099345098</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3042,31 +5088,31 @@
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.200066292918268</v>
+        <v>1.200032497800585</v>
       </c>
       <c r="I4">
-        <v>102.1025714171935</v>
+        <v>105.0714610339053</v>
       </c>
       <c r="J4">
-        <v>10.6826636174429</v>
+        <v>10.99328898811119</v>
       </c>
       <c r="K4">
-        <v>14325.66556426328</v>
+        <v>14742.22039883686</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3097,7 +5143,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3105,15 +5151,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="B2">
         <v>4719848.27318464</v>
@@ -3121,130 +5167,394 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="B3">
-        <v>4450639.90751528</v>
+        <v>4629841.401008163</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B4">
-        <v>4253391.152475267</v>
+        <v>4538105.725433338</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B5">
-        <v>4163199.515701141</v>
+        <v>4444528.481792278</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="B6">
-        <v>4719848.27318464</v>
+        <v>4336908.449750478</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="B7">
-        <v>4501425.743031803</v>
+        <v>4239480.003745668</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="B8">
-        <v>4383006.013061319</v>
+        <v>4163672.388510337</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B9">
-        <v>4264678.691755835</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="B10">
-        <v>4184624.542562771</v>
+        <v>4609459.04414115</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B11">
-        <v>4719848.27318464</v>
+        <v>4496442.552537158</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B12">
-        <v>4371087.162623841</v>
+        <v>4456328.835412916</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B13">
-        <v>4014738.206005285</v>
+        <v>4415860.71277449</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B14">
-        <v>3932989.619854352</v>
+        <v>4375028.621723402</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="B15">
-        <v>4719848.27318464</v>
+        <v>4332542.073483923</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B16">
-        <v>4374963.639422653</v>
+        <v>4289646.586149371</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="B17">
-        <v>4215269.618969417</v>
+        <v>4252277.917646678</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="B18">
-        <v>3326109.762144403</v>
+        <v>4184639.102278052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20">
+        <v>4603921.620421041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21">
+        <v>4485089.619023613</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22">
+        <v>4363111.882407848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23">
+        <v>4237724.51792611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24">
+        <v>4108623.022283109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25">
+        <v>3990217.090911283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26">
+        <v>3933100.380060672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28">
+        <v>4605214.898292832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29">
+        <v>4487742.436611561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30">
+        <v>4367198.578605633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31">
+        <v>4243329.023133839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32">
+        <v>4191952.379590714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33">
+        <v>3891495.947350198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34">
+        <v>3325995.032960987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35">
+        <v>4604326.575627618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36">
+        <v>4485920.360442947</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37">
+        <v>4364391.7905613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38">
+        <v>4645098.174577626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39">
+        <v>4569163.961212213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40">
+        <v>4491982.233958257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41">
+        <v>4413487.929014986</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42">
+        <v>4333611.711300379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43">
+        <v>4606060.490981052</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44">
+        <v>4489476.512720108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45">
+        <v>4369869.203386199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46">
+        <v>4246990.394191001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47">
+        <v>4120555.984344149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48">
+        <v>4618964.602465562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49">
+        <v>4515897.002516481</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50">
+        <v>4410487.447646458</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51">
+        <v>4302568.644392983</v>
       </c>
     </row>
   </sheetData>
@@ -3262,36 +5572,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112655131039535</v>
+        <v>8.112661342860724</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -3300,21 +5610,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.519670806576</v>
+        <v>1150.520551753979</v>
       </c>
       <c r="G2">
-        <v>-6.337944327297924E-05</v>
+        <v>1.319002937968408E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
       </c>
       <c r="C3">
-        <v>21.09291642760252</v>
+        <v>21.09291642731566</v>
       </c>
       <c r="D3">
         <v>141.8178946624533</v>
@@ -3323,21 +5633,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.353000053665</v>
+        <v>2991.353000012984</v>
       </c>
       <c r="G3">
-        <v>1.794015509309433E-09</v>
+        <v>4.340313920309707E-10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>
       </c>
       <c r="C4">
-        <v>16.22532054588799</v>
+        <v>16.22532054566733</v>
       </c>
       <c r="D4">
         <v>141.8178946624533</v>
@@ -3346,10 +5656,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040800041281</v>
+        <v>2301.040800009988</v>
       </c>
       <c r="G4">
-        <v>1.794013801004096E-09</v>
+        <v>4.340465450710237E-10</v>
       </c>
     </row>
   </sheetData>
